--- a/Sequencer/Complex/BOM - Sequencer.xlsx
+++ b/Sequencer/Complex/BOM - Sequencer.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49490E-47BC-41A0-A961-F59D6CDFA76B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8E2EB-5D10-46D3-A3D2-37B2016858E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Description</t>
   </si>
@@ -194,6 +194,30 @@
   </si>
   <si>
     <t>NAND 3 Input (3-Pack)</t>
+  </si>
+  <si>
+    <t>RED LED</t>
+  </si>
+  <si>
+    <t>C503B-RAN-CZ0C0AA2</t>
+  </si>
+  <si>
+    <t>C503B-RAN-CZ0C0AA2CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/cree-inc/C503B-RAN-CZ0C0AA2/C503B-RAN-CZ0C0AA2CT-ND/6561767</t>
+  </si>
+  <si>
+    <t>560ohm Resistor</t>
+  </si>
+  <si>
+    <t>CF14JT560RCT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT560R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/CF14JT560R/CF14JT560RCT-ND/1830344</t>
   </si>
 </sst>
 </file>
@@ -533,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,12 +629,12 @@
         <v>8</v>
       </c>
       <c r="H2">
-        <f>(F2-G2) *E2</f>
+        <f t="shared" ref="H2:H14" si="0">(F2-G2) *E2</f>
         <v>0</v>
       </c>
       <c r="K2">
         <f>SUM(H:H)</f>
-        <v>42.779999999999994</v>
+        <v>51.77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -636,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>(F3-G3) *E3</f>
+        <f t="shared" si="0"/>
         <v>9.36</v>
       </c>
     </row>
@@ -663,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>(F4-G4) *E4</f>
+        <f t="shared" si="0"/>
         <v>6.76</v>
       </c>
     </row>
@@ -690,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>(F5-G5) *E5</f>
+        <f t="shared" si="0"/>
         <v>1.84</v>
       </c>
     </row>
@@ -711,14 +735,14 @@
         <v>0.97</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <f>(F6-G6) *E6</f>
-        <v>2.91</v>
+        <f t="shared" si="0"/>
+        <v>5.82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -744,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>(F7-G7) *E7</f>
+        <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -771,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>(F8-G8) *E8</f>
+        <f t="shared" si="0"/>
         <v>4.32</v>
       </c>
     </row>
@@ -798,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>(F9-G9) *E9</f>
+        <f t="shared" si="0"/>
         <v>1.83</v>
       </c>
       <c r="I9" t="s">
@@ -828,7 +852,7 @@
         <v>16</v>
       </c>
       <c r="H10">
-        <f>(F10-G10) *E10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -858,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>(F11-G11) *E11</f>
+        <f t="shared" si="0"/>
         <v>8.64</v>
       </c>
     </row>
@@ -885,8 +909,62 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>(F12-G12) *E12</f>
+        <f t="shared" si="0"/>
         <v>4.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <v>0.22</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>0.16</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2.56</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
